--- a/inputs/metabolicTasks_Essential_sec.xlsx
+++ b/inputs/metabolicTasks_Essential_sec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasools/drive/scripts/HumanSec/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1FCDE6-F21F-B844-92F8-2E07F0AE01A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3744680-A29C-C442-9D68-42999F17057C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="271">
   <si>
     <t>ID</t>
   </si>
@@ -1155,8 +1155,8 @@
   <dimension ref="A1:T232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H164" sqref="H164"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K176" sqref="K176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3052,15 +3052,18 @@
         <v>57</v>
       </c>
       <c r="H164" t="s">
-        <v>270</v>
-      </c>
-      <c r="I164">
-        <v>1</v>
+        <v>233</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="E165" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="H165" t="s">
+        <v>270</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:9">

--- a/inputs/metabolicTasks_Essential_sec.xlsx
+++ b/inputs/metabolicTasks_Essential_sec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasools/drive/scripts/HumanSec/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3744680-A29C-C442-9D68-42999F17057C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F15CB2A-0FCF-1E40-83C2-02660A53ED79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="270">
   <si>
     <t>ID</t>
   </si>
@@ -830,9 +830,6 @@
   </si>
   <si>
     <t>NEFA blood pool in[s]</t>
-  </si>
-  <si>
-    <t>PROTEIN_mature[s]</t>
   </si>
 </sst>
 </file>
@@ -1155,8 +1152,8 @@
   <dimension ref="A1:T232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K176" sqref="K176"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G184" sqref="G184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3060,7 +3057,7 @@
         <v>60</v>
       </c>
       <c r="H165" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -3201,325 +3198,132 @@
         <v>262</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="5:5">
       <c r="E193" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="5:5">
       <c r="E194" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="5:5">
       <c r="E195" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="5:5">
       <c r="E196" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="5:5">
       <c r="E197" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
-      <c r="A198" t="s">
-        <v>19</v>
-      </c>
-      <c r="B198" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
-      <c r="A199" t="s">
-        <v>19</v>
-      </c>
-      <c r="B199" t="s">
-        <v>245</v>
-      </c>
-      <c r="C199" t="s">
-        <v>246</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H199" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
-      <c r="A200" t="s">
-        <v>19</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H200" t="s">
-        <v>268</v>
-      </c>
-      <c r="I200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
-      <c r="A201" t="s">
-        <v>19</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
-      <c r="A202" t="s">
-        <v>19</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
-      <c r="A203" t="s">
-        <v>19</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
-      <c r="A204" t="s">
-        <v>19</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
-      <c r="A205" t="s">
-        <v>19</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
-      <c r="A206" t="s">
-        <v>19</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
-      <c r="A207" t="s">
-        <v>19</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
-      <c r="A208" t="s">
-        <v>19</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" t="s">
-        <v>19</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" t="s">
-        <v>19</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" t="s">
-        <v>19</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>19</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
-        <v>19</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" t="s">
-        <v>19</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
-        <v>19</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>19</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
-        <v>19</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
-        <v>19</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" t="s">
-        <v>19</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" t="s">
-        <v>19</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" t="s">
-        <v>19</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" t="s">
-        <v>19</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" t="s">
-        <v>19</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" t="s">
-        <v>19</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" t="s">
-        <v>19</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" t="s">
-        <v>19</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" t="s">
-        <v>19</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" t="s">
-        <v>19</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" t="s">
-        <v>19</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" t="s">
-        <v>19</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" t="s">
-        <v>19</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" t="s">
-        <v>19</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>267</v>
-      </c>
+    <row r="199" spans="5:5">
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="5:5">
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="5:5">
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="5:5">
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203" spans="5:5">
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="5:5">
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="5:5">
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="5:5">
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="5:5">
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="5:5">
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="5:5">
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="5:5">
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="5:5">
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="5:5">
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="5:5">
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="5:5">
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="5:5">
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="5:5">
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="5:5">
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="5:5">
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="5:5">
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="5:5">
+      <c r="E220" s="2"/>
+    </row>
+    <row r="221" spans="5:5">
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="5:5">
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="5:5">
+      <c r="E223" s="2"/>
+    </row>
+    <row r="224" spans="5:5">
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="5:5">
+      <c r="E225" s="2"/>
+    </row>
+    <row r="226" spans="5:5">
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" spans="5:5">
+      <c r="E227" s="2"/>
+    </row>
+    <row r="228" spans="5:5">
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="5:5">
+      <c r="E229" s="2"/>
+    </row>
+    <row r="230" spans="5:5">
+      <c r="E230" s="2"/>
+    </row>
+    <row r="231" spans="5:5">
+      <c r="E231" s="2"/>
+    </row>
+    <row r="232" spans="5:5">
+      <c r="E232" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
